--- a/MHGR/Data/Experiments/Import/DataImport.xlsx
+++ b/MHGR/Data/Experiments/Import/DataImport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="7300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid" sheetId="1" r:id="rId1"/>
@@ -90,11 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,12 +380,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="10.90625" customWidth="1"/>
+    <col min="2" max="6" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -404,302 +405,309 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>129.4460287</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>56.710683400000001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>17.353569100000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>280.00096230000003</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>314.19868430000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>130.73862199999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>55.9640518</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>16.812726399999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>278.92716150000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>334.99526500000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>129.71126290000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>55.960023399999997</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>16.5314719</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>278.19797390000002</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>309.79903339999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>131.774666</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>56.634178200000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>16.9984331</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>297.04375329999999</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>329.33304759999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>130.037767</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>58.745861300000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>17.5783497</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>284.98639500000002</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>341.1532674</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>128.58139629999999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>56.550804499999998</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>17.6721021</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>293.27495040000002</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>329.8689693</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>130.10308989999999</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>56.982307499999997</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>17.0627189</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>279.24629119999997</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>331.68034519999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>129.85090779999999</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>54.131170500000003</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>16.250210200000001</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>269.41021699999999</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>304.65807039999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>131.4980635</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>56.177086500000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>17.113590899999998</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>277.07822349999998</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>320.34553219999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>130.25066269999999</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>55.879196200000003</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>16.781463599999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>276.18162339999998</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>323.98406519999997</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>130.19924667999999</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <f t="shared" ref="C13:F13" si="0">AVERAGE(C2:C11)</f>
         <v>56.37353633</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>17.01546359</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>281.43475515</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>324.00162799999993</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>_xlfn.STDEV.P(B2:B11)</f>
         <v>0.89677241507524963</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <f t="shared" ref="C14:F14" si="1">_xlfn.STDEV.P(C2:C11)</f>
         <v>1.0891002788992403</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <f t="shared" si="1"/>
         <v>0.42310771475401265</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>7.8180521008821797</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>11.055329843326637</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>MIN(B2:B11)</f>
         <v>128.58139629999999</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f t="shared" ref="C15:F15" si="2">MIN(C2:C11)</f>
         <v>54.131170500000003</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>16.250210200000001</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <f t="shared" si="2"/>
         <v>269.41021699999999</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <f t="shared" si="2"/>
         <v>304.65807039999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MAX(B2:B11)</f>
         <v>131.774666</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <f t="shared" ref="C16:F16" si="3">MAX(C2:C11)</f>
         <v>58.745861300000001</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <f t="shared" si="3"/>
         <v>17.6721021</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>297.04375329999999</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <f t="shared" si="3"/>
         <v>341.1532674</v>
       </c>
@@ -713,16 +721,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="10.90625" customWidth="1"/>
+    <col min="2" max="6" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -742,302 +748,309 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>124.72798760000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>137.27707029999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>24.719062900000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>594.05233669999996</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>602.29715550000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>125.07572</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>135.237854</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>24.9222131</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>582.18231019999996</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>584.81430869999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>125.2735383</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>135.26660480000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>22.453430600000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>569.10251419999997</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>586.27729099999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>126.9771607</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>138.67722800000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>23.574727899999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>566.36951499999998</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>577.01456210000003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>124.63730049999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>135.6918747</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>22.504717899999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>564.60581449999995</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>581.50062519999994</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>125.8980002</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>135.9524586</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>23.9534293</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>576.04409499999997</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>578.45300640000005</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>126.7599338</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>137.5871448</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>24.047184699999999</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>573.84158239999999</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>581.78275210000004</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>123.49376650000001</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>133.78183899999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>21.2502709</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>558.11195850000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>571.9561903</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>126.6067395</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>135.40359609999999</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>24.1409351</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>578.41490199999998</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>589.16035750000003</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>127.5423921</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>136.073465</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>22.6721659</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>568.33514019999996</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>577.90167929999996</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>125.69925391999998</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <f t="shared" ref="C13:F13" si="0">AVERAGE(C2:C11)</f>
         <v>136.09491352999999</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>23.423813830000004</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>573.10601686999985</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>583.11579281000002</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>_xlfn.STDEV.P(B2:B11)</f>
         <v>1.2051382695524644</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <f t="shared" ref="C14:F14" si="1">_xlfn.STDEV.P(C2:C11)</f>
         <v>1.3313403216126569</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <f t="shared" si="1"/>
         <v>1.1047459756226643</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>9.6939672895609519</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>7.9524683531094711</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>MIN(B2:B11)</f>
         <v>123.49376650000001</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f t="shared" ref="C15:F15" si="2">MIN(C2:C11)</f>
         <v>133.78183899999999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>21.2502709</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <f t="shared" si="2"/>
         <v>558.11195850000001</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <f t="shared" si="2"/>
         <v>571.9561903</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MAX(B2:B11)</f>
         <v>127.5423921</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <f t="shared" ref="C16:F16" si="3">MAX(C2:C11)</f>
         <v>138.67722800000001</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <f t="shared" si="3"/>
         <v>24.9222131</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>594.05233669999996</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <f t="shared" si="3"/>
         <v>602.29715550000003</v>
       </c>

--- a/MHGR/Data/Experiments/Import/DataImport.xlsx
+++ b/MHGR/Data/Experiments/Import/DataImport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="7305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>Phenotype</t>
   </si>
@@ -48,13 +48,16 @@
     <t>SD</t>
   </si>
   <si>
-    <t>Avg</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -376,7 +379,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="6" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>129.4460287</v>
+      </c>
+      <c r="C2" s="2">
+        <v>56.710683400000001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>17.353569100000001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>280.00096230000003</v>
+      </c>
+      <c r="F2" s="2">
+        <v>314.19868430000002</v>
+      </c>
+      <c r="G2" s="2">
+        <f>SUM(B2:F2)</f>
+        <v>797.70992780000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>130.73862199999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>55.9640518</v>
+      </c>
+      <c r="D3" s="2">
+        <v>16.812726399999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>278.92716150000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>334.99526500000002</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G11" si="0">SUM(B3:F3)</f>
+        <v>817.43782669999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>129.71126290000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>55.960023399999997</v>
+      </c>
+      <c r="D4" s="2">
+        <v>16.5314719</v>
+      </c>
+      <c r="E4" s="2">
+        <v>278.19797390000002</v>
+      </c>
+      <c r="F4" s="2">
+        <v>309.79903339999998</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>790.19976550000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>131.774666</v>
+      </c>
+      <c r="C5" s="2">
+        <v>56.634178200000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16.9984331</v>
+      </c>
+      <c r="E5" s="2">
+        <v>297.04375329999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>329.33304759999999</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>831.78407819999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>130.037767</v>
+      </c>
+      <c r="C6" s="2">
+        <v>58.745861300000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>17.5783497</v>
+      </c>
+      <c r="E6" s="2">
+        <v>284.98639500000002</v>
+      </c>
+      <c r="F6" s="2">
+        <v>341.1532674</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>832.50164040000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>128.58139629999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>56.550804499999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>17.6721021</v>
+      </c>
+      <c r="E7" s="2">
+        <v>293.27495040000002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>329.8689693</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>825.94822260000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>130.10308989999999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>56.982307499999997</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17.0627189</v>
+      </c>
+      <c r="E8" s="2">
+        <v>279.24629119999997</v>
+      </c>
+      <c r="F8" s="2">
+        <v>331.68034519999998</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>815.07475269999986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>129.85090779999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>54.131170500000003</v>
+      </c>
+      <c r="D9" s="2">
+        <v>16.250210200000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>269.41021699999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>304.65807039999999</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>774.30057590000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>131.4980635</v>
+      </c>
+      <c r="C10" s="2">
+        <v>56.177086500000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>17.113590899999998</v>
+      </c>
+      <c r="E10" s="2">
+        <v>277.07822349999998</v>
+      </c>
+      <c r="F10" s="2">
+        <v>320.34553219999998</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>802.21249659999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>130.25066269999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>55.879196200000003</v>
+      </c>
+      <c r="D11" s="2">
+        <v>16.781463599999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>276.18162339999998</v>
+      </c>
+      <c r="F11" s="2">
+        <v>323.98406519999997</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>803.07701109999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(B2:B11)</f>
+        <v>130.19924667999999</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" ref="C14:G14" si="1">AVERAGE(C2:C11)</f>
+        <v>56.37353633</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>17.01546359</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>281.43475515</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>324.00162799999993</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>809.02462975000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2">
+        <f>_xlfn.STDEV.P(B2:B11)</f>
+        <v>0.89677241507524963</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ref="C15:G15" si="2">_xlfn.STDEV.P(C2:C11)</f>
+        <v>1.0891002788992403</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.42310771475401265</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8180521008821797</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>11.055329843326637</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>17.980249230963718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(B2:B11)</f>
+        <v>128.58139629999999</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:G16" si="3">MIN(C2:C11)</f>
+        <v>54.131170500000003</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="3"/>
+        <v>16.250210200000001</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="3"/>
+        <v>269.41021699999999</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="3"/>
+        <v>304.65807039999999</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="3"/>
+        <v>774.30057590000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(B2:B11)</f>
+        <v>131.774666</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:G17" si="4">MAX(C2:C11)</f>
+        <v>58.745861300000001</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="4"/>
+        <v>17.6721021</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="4"/>
+        <v>297.04375329999999</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="4"/>
+        <v>341.1532674</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="4"/>
+        <v>832.50164040000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,7 +812,7 @@
     <col min="2" max="6" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -404,655 +831,391 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>129.4460287</v>
+        <v>124.72798760000001</v>
       </c>
       <c r="C2" s="2">
-        <v>56.710683400000001</v>
+        <v>137.27707029999999</v>
       </c>
       <c r="D2" s="2">
-        <v>17.353569100000001</v>
+        <v>24.719062900000001</v>
       </c>
       <c r="E2" s="2">
-        <v>280.00096230000003</v>
+        <v>594.05233669999996</v>
       </c>
       <c r="F2" s="2">
-        <v>314.19868430000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>602.29715550000003</v>
+      </c>
+      <c r="G2" s="2">
+        <f>SUM(B2:F2)</f>
+        <v>1483.073613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>130.73862199999999</v>
+        <v>125.07572</v>
       </c>
       <c r="C3" s="2">
-        <v>55.9640518</v>
+        <v>135.237854</v>
       </c>
       <c r="D3" s="2">
-        <v>16.812726399999999</v>
+        <v>24.9222131</v>
       </c>
       <c r="E3" s="2">
-        <v>278.92716150000001</v>
+        <v>582.18231019999996</v>
       </c>
       <c r="F3" s="2">
-        <v>334.99526500000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>584.81430869999997</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G11" si="0">SUM(B3:F3)</f>
+        <v>1452.2324060000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>129.71126290000001</v>
+        <v>125.2735383</v>
       </c>
       <c r="C4" s="2">
-        <v>55.960023399999997</v>
+        <v>135.26660480000001</v>
       </c>
       <c r="D4" s="2">
-        <v>16.5314719</v>
+        <v>22.453430600000001</v>
       </c>
       <c r="E4" s="2">
-        <v>278.19797390000002</v>
+        <v>569.10251419999997</v>
       </c>
       <c r="F4" s="2">
-        <v>309.79903339999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>586.27729099999999</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>1438.3733788999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>131.774666</v>
+        <v>126.9771607</v>
       </c>
       <c r="C5" s="2">
-        <v>56.634178200000001</v>
+        <v>138.67722800000001</v>
       </c>
       <c r="D5" s="2">
-        <v>16.9984331</v>
+        <v>23.574727899999999</v>
       </c>
       <c r="E5" s="2">
-        <v>297.04375329999999</v>
+        <v>566.36951499999998</v>
       </c>
       <c r="F5" s="2">
-        <v>329.33304759999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>577.01456210000003</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1432.6131937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>130.037767</v>
+        <v>124.63730049999999</v>
       </c>
       <c r="C6" s="2">
-        <v>58.745861300000001</v>
+        <v>135.6918747</v>
       </c>
       <c r="D6" s="2">
-        <v>17.5783497</v>
+        <v>22.504717899999999</v>
       </c>
       <c r="E6" s="2">
-        <v>284.98639500000002</v>
+        <v>564.60581449999995</v>
       </c>
       <c r="F6" s="2">
-        <v>341.1532674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>581.50062519999994</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>1428.9403327999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>128.58139629999999</v>
+        <v>125.8980002</v>
       </c>
       <c r="C7" s="2">
-        <v>56.550804499999998</v>
+        <v>135.9524586</v>
       </c>
       <c r="D7" s="2">
-        <v>17.6721021</v>
+        <v>23.9534293</v>
       </c>
       <c r="E7" s="2">
-        <v>293.27495040000002</v>
+        <v>576.04409499999997</v>
       </c>
       <c r="F7" s="2">
-        <v>329.8689693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>578.45300640000005</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1440.3009895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>130.10308989999999</v>
+        <v>126.7599338</v>
       </c>
       <c r="C8" s="2">
-        <v>56.982307499999997</v>
+        <v>137.5871448</v>
       </c>
       <c r="D8" s="2">
-        <v>17.0627189</v>
+        <v>24.047184699999999</v>
       </c>
       <c r="E8" s="2">
-        <v>279.24629119999997</v>
+        <v>573.84158239999999</v>
       </c>
       <c r="F8" s="2">
-        <v>331.68034519999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>581.78275210000004</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>1444.0185978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>129.85090779999999</v>
+        <v>123.49376650000001</v>
       </c>
       <c r="C9" s="2">
-        <v>54.131170500000003</v>
+        <v>133.78183899999999</v>
       </c>
       <c r="D9" s="2">
-        <v>16.250210200000001</v>
+        <v>21.2502709</v>
       </c>
       <c r="E9" s="2">
-        <v>269.41021699999999</v>
+        <v>558.11195850000001</v>
       </c>
       <c r="F9" s="2">
-        <v>304.65807039999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571.9561903</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>1408.5940252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>131.4980635</v>
+        <v>126.6067395</v>
       </c>
       <c r="C10" s="2">
-        <v>56.177086500000001</v>
+        <v>135.40359609999999</v>
       </c>
       <c r="D10" s="2">
-        <v>17.113590899999998</v>
+        <v>24.1409351</v>
       </c>
       <c r="E10" s="2">
-        <v>277.07822349999998</v>
+        <v>578.41490199999998</v>
       </c>
       <c r="F10" s="2">
-        <v>320.34553219999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>589.16035750000003</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>1453.7265302000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>130.25066269999999</v>
+        <v>127.5423921</v>
       </c>
       <c r="C11" s="2">
-        <v>55.879196200000003</v>
+        <v>136.073465</v>
       </c>
       <c r="D11" s="2">
-        <v>16.781463599999999</v>
+        <v>22.6721659</v>
       </c>
       <c r="E11" s="2">
-        <v>276.18162339999998</v>
+        <v>568.33514019999996</v>
       </c>
       <c r="F11" s="2">
-        <v>323.98406519999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>577.90167929999996</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>1432.5248425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>130.19924667999999</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" ref="C13:F13" si="0">AVERAGE(C2:C11)</f>
-        <v>56.37353633</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>17.01546359</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>281.43475515</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>324.00162799999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2">
-        <f>_xlfn.STDEV.P(B2:B11)</f>
-        <v>0.89677241507524963</v>
+        <v>125.69925391999998</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" ref="C14:F14" si="1">_xlfn.STDEV.P(C2:C11)</f>
-        <v>1.0891002788992403</v>
+        <f t="shared" ref="C14:F14" si="1">AVERAGE(C2:C11)</f>
+        <v>136.09491352999999</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>0.42310771475401265</v>
+        <v>23.423813830000004</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>7.8180521008821797</v>
+        <v>573.10601686999985</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>11.055329843326637</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>583.11579281000002</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" ref="G14" si="2">AVERAGE(G2:G11)</f>
+        <v>1441.43979096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2">
-        <f>MIN(B2:B11)</f>
-        <v>128.58139629999999</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" ref="C15:F15" si="2">MIN(C2:C11)</f>
-        <v>54.131170500000003</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="2"/>
-        <v>16.250210200000001</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="2"/>
-        <v>269.41021699999999</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
-        <v>304.65807039999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2">
-        <f>MAX(B2:B11)</f>
-        <v>131.774666</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" ref="C16:F16" si="3">MAX(C2:C11)</f>
-        <v>58.745861300000001</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="3"/>
-        <v>17.6721021</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="3"/>
-        <v>297.04375329999999</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="3"/>
-        <v>341.1532674</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="6" width="10.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>124.72798760000001</v>
-      </c>
-      <c r="C2" s="2">
-        <v>137.27707029999999</v>
-      </c>
-      <c r="D2" s="2">
-        <v>24.719062900000001</v>
-      </c>
-      <c r="E2" s="2">
-        <v>594.05233669999996</v>
-      </c>
-      <c r="F2" s="2">
-        <v>602.29715550000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>125.07572</v>
-      </c>
-      <c r="C3" s="2">
-        <v>135.237854</v>
-      </c>
-      <c r="D3" s="2">
-        <v>24.9222131</v>
-      </c>
-      <c r="E3" s="2">
-        <v>582.18231019999996</v>
-      </c>
-      <c r="F3" s="2">
-        <v>584.81430869999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>125.2735383</v>
-      </c>
-      <c r="C4" s="2">
-        <v>135.26660480000001</v>
-      </c>
-      <c r="D4" s="2">
-        <v>22.453430600000001</v>
-      </c>
-      <c r="E4" s="2">
-        <v>569.10251419999997</v>
-      </c>
-      <c r="F4" s="2">
-        <v>586.27729099999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>126.9771607</v>
-      </c>
-      <c r="C5" s="2">
-        <v>138.67722800000001</v>
-      </c>
-      <c r="D5" s="2">
-        <v>23.574727899999999</v>
-      </c>
-      <c r="E5" s="2">
-        <v>566.36951499999998</v>
-      </c>
-      <c r="F5" s="2">
-        <v>577.01456210000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>124.63730049999999</v>
-      </c>
-      <c r="C6" s="2">
-        <v>135.6918747</v>
-      </c>
-      <c r="D6" s="2">
-        <v>22.504717899999999</v>
-      </c>
-      <c r="E6" s="2">
-        <v>564.60581449999995</v>
-      </c>
-      <c r="F6" s="2">
-        <v>581.50062519999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>125.8980002</v>
-      </c>
-      <c r="C7" s="2">
-        <v>135.9524586</v>
-      </c>
-      <c r="D7" s="2">
-        <v>23.9534293</v>
-      </c>
-      <c r="E7" s="2">
-        <v>576.04409499999997</v>
-      </c>
-      <c r="F7" s="2">
-        <v>578.45300640000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>126.7599338</v>
-      </c>
-      <c r="C8" s="2">
-        <v>137.5871448</v>
-      </c>
-      <c r="D8" s="2">
-        <v>24.047184699999999</v>
-      </c>
-      <c r="E8" s="2">
-        <v>573.84158239999999</v>
-      </c>
-      <c r="F8" s="2">
-        <v>581.78275210000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>123.49376650000001</v>
-      </c>
-      <c r="C9" s="2">
-        <v>133.78183899999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>21.2502709</v>
-      </c>
-      <c r="E9" s="2">
-        <v>558.11195850000001</v>
-      </c>
-      <c r="F9" s="2">
-        <v>571.9561903</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>126.6067395</v>
-      </c>
-      <c r="C10" s="2">
-        <v>135.40359609999999</v>
-      </c>
-      <c r="D10" s="2">
-        <v>24.1409351</v>
-      </c>
-      <c r="E10" s="2">
-        <v>578.41490199999998</v>
-      </c>
-      <c r="F10" s="2">
-        <v>589.16035750000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>127.5423921</v>
-      </c>
-      <c r="C11" s="2">
-        <v>136.073465</v>
-      </c>
-      <c r="D11" s="2">
-        <v>22.6721659</v>
-      </c>
-      <c r="E11" s="2">
-        <v>568.33514019999996</v>
-      </c>
-      <c r="F11" s="2">
-        <v>577.90167929999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2">
-        <f>AVERAGE(B2:B11)</f>
-        <v>125.69925391999998</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" ref="C13:F13" si="0">AVERAGE(C2:C11)</f>
-        <v>136.09491352999999</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>23.423813830000004</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>573.10601686999985</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>583.11579281000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2">
         <f>_xlfn.STDEV.P(B2:B11)</f>
         <v>1.2051382695524644</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" ref="C14:F14" si="1">_xlfn.STDEV.P(C2:C11)</f>
+      <c r="C15" s="2">
+        <f t="shared" ref="C15:F15" si="3">_xlfn.STDEV.P(C2:C11)</f>
         <v>1.3313403216126569</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="1"/>
+      <c r="D15" s="2">
+        <f t="shared" si="3"/>
         <v>1.1047459756226643</v>
       </c>
-      <c r="E14" s="2">
-        <f t="shared" si="1"/>
+      <c r="E15" s="2">
+        <f t="shared" si="3"/>
         <v>9.6939672895609519</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="1"/>
+      <c r="F15" s="2">
+        <f t="shared" si="3"/>
         <v>7.9524683531094711</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="G15" s="2">
+        <f t="shared" ref="G15" si="4">_xlfn.STDEV.P(G2:G11)</f>
+        <v>18.467906060260066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
         <f>MIN(B2:B11)</f>
         <v>123.49376650000001</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" ref="C15:F15" si="2">MIN(C2:C11)</f>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:F16" si="5">MIN(C2:C11)</f>
         <v>133.78183899999999</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="2"/>
+      <c r="D16" s="2">
+        <f t="shared" si="5"/>
         <v>21.2502709</v>
       </c>
-      <c r="E15" s="2">
-        <f t="shared" si="2"/>
+      <c r="E16" s="2">
+        <f t="shared" si="5"/>
         <v>558.11195850000001</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
+      <c r="F16" s="2">
+        <f t="shared" si="5"/>
         <v>571.9561903</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="G16" s="2">
+        <f t="shared" ref="G16" si="6">MIN(G2:G11)</f>
+        <v>1408.5940252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
         <f>MAX(B2:B11)</f>
         <v>127.5423921</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" ref="C16:F16" si="3">MAX(C2:C11)</f>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:F17" si="7">MAX(C2:C11)</f>
         <v>138.67722800000001</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="3"/>
+      <c r="D17" s="2">
+        <f t="shared" si="7"/>
         <v>24.9222131</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" si="3"/>
+      <c r="E17" s="2">
+        <f t="shared" si="7"/>
         <v>594.05233669999996</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="3"/>
+      <c r="F17" s="2">
+        <f t="shared" si="7"/>
         <v>602.29715550000003</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ref="G17" si="8">MAX(G2:G11)</f>
+        <v>1483.073613</v>
       </c>
     </row>
   </sheetData>
